--- a/src/test/java/ApachePOI/resource/ExcellOperations.xlsx
+++ b/src/test/java/ApachePOI/resource/ExcellOperations.xlsx
@@ -12,7 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Welcome</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27,12 +34,32 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="15"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <fgColor indexed="15"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="5"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -47,26 +74,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
+  <dimension ref="B2:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
+    <row r="2">
+      <c r="B2" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/src/test/java/ApachePOI/resource/ExcellOperations.xlsx
+++ b/src/test/java/ApachePOI/resource/ExcellOperations.xlsx
@@ -53,12 +53,12 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="5"/>
+        <fgColor indexed="44"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="5"/>
+      <patternFill patternType="darkTrellis">
+        <fgColor indexed="44"/>
       </patternFill>
     </fill>
   </fills>
